--- a/산출물/테스트케이스_A204.xlsx
+++ b/산출물/테스트케이스_A204.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\s03p31a204\산출물\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20076" windowHeight="5844"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
   <si>
     <t>테스트 케이스 (FINAL)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -73,10 +78,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>admin 계정 로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>사이트 취지에 맞게 포트폴리오 및 포스트 페이지 삭제 =&gt; 자유게시판, 공지사항, 취업자 게시판 / 자기소개서 페이지를 새로 생성</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -93,67 +94,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>issue free</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue free</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 페이지 생성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 게시글 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글에 대한 상세페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 경우</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글에 대한 댓글을 읽어오는지 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세페이지 내에서 댓글 작성 가능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글을 등록하면 페이지 및 firebase DB에서 확인 가능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>firebase DB에서 잘 읽어옴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성한 계정으로 로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 계정으로 작성한 댓글에 수정 및 삭제 버튼 노출 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 노출 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -189,42 +134,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>회원 가입 후, 첫로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림을 허용할 지 묻는 팝업창이 나타나는지 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 로그인 이후</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업창이 나타나지 않는지 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠키 허용 계정 로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 등록이 되었다는 푸시 알람이 옴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 댓글 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 댓글이 등록되었다는 푸시 알람</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>EPIC</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -253,7 +162,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>오프라인 상태</t>
+    <t>챗봇 API 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇 아이콘을 눌렀을 때 Q&amp;A 채팅이 열리는가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문과 회원역할에 대한 정보를 주는가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 목록을 눌렀는데 정보를 주는 것을 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -261,63 +190,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>챗봇 API 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗봇 아이콘을 눌렀을 때 Q&amp;A 채팅이 열리는가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주 묻는 질문과 회원역할에 대한 정보를 주는가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 목록을 눌렀는데 정보를 주는 것을 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 작성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue free</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인 상태에서 작성했던 글이 firebase DB에 저장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인 상태에서 변경했던 글이 firebase DB에 적용됨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인 상태에서 삭제했던 글이 firebase DB에 적용됨</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -488,20 +361,6 @@
   </si>
   <si>
     <t>Vue.js Api 통신 코드 모듈화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6] Redis &amp; DB 연동
-1. 첫 방문 시 알림 허용/차단 여부 쿠키로 판단
-2. 쿠키를 허용한 유저에게 글 등록 시 푸시 알람
-3. 관리자 회원은 새로운 댓글 등록 시 푸시 알람 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7] 모듈 객체 통신 컨벤션 재설계
-1. POST, PORTFOLIO 오프라인으로 저장
-2. Cloud firestore - 오프라인 데이터 사용 설정
-3. 오프라인 상태에서도 웹 환경 확인 가능(service worker를 사용해 PWA를 오프라인에서도 동작)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -691,17 +550,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>[5] Backend 통신 구조 설계
-1. 포스트 상세페이지를 만들고 클릭시 이동
-2. 상세페이지에 댓글을 추가
-3. 댓글 작성은 회원만 할 수 있고 댓글을 작성한 본인만 수정, 삭제 가능
-4. 더보기 버튼 구현(처음에 6개 로딩 후 클릭시 6개를 추가로 더 로딩한다)
-5. 관리자, 팀원으로 로그인 시 글쓰기 버튼 노출 &amp; 클릭시 페이지 이동
-6. 관리자, 팀원으로 로그인 시 상세보기 페이지에서 삭제 수정 버튼 노출 &amp; 구현
-7. 관리자, 팀원으로 로그인하지 않은 경우, 작성, 수정, 삭제 불가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AWS 테스트 배포</t>
   </si>
   <si>
@@ -748,11 +596,137 @@
 3. 사용자 편의를 생각한 자동 스크립트 및 기능 개발</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>[5] Backend 통신 구조 설계
+1. mongoDB 구축 및 설계
+2. 사용하지 않는 로직 및 파일 정리
+3. mongoDB에 보드 상태 저장 구현
+4. 서버간 통신 리팩토링
+5. 보드 서버 API uri 수정
+6. 채널에 접근 가능한 사용자인지 판별하는 API</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB 구축 및 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽고DB 생성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하지 않는 로직 및 파일 정리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB에 보드 상태 저장 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버간 통신 리팩토링</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널에 접근 가능한 사용자인지 판별하는 API</t>
+  </si>
+  <si>
+    <t>mongoDB</t>
+  </si>
+  <si>
+    <t>기존 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로직 정리 후에도 다른 기능들 정상작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelDetail에서 송신된 board가 mongoDB에 저장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebClient 이용 후에도 정상 작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드 서버 API uri 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변경된 uri로 front와 연동 확인 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 권한있는 유저만 해당 채널 입장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성상태인 채널을 mongoDB에서 Redis에 올리기</t>
+  </si>
+  <si>
+    <t>mongoDB, Redis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6] Redis &amp; DB 연동
+1. 채널 활성시 Redis로 mongoDB 데이터 송신
+2. 튜토리얼 채널에도 Redis로 백업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 채널에도 Redis로 백업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 채널로 들어갔을 때 Redis 송수신</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB와 Redis간 송수신</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7] 모듈 객체 통신 컨벤션 재설계
+1. 칸반모듈 객체 구조 수정
+2. 에디터 모듈 객체 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 모듈 객체 설계</t>
+  </si>
+  <si>
+    <t>칸반모듈 객체 구조 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 모듈 front와 back 연동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반모듈 front와 back 연동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -992,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,9 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1028,15 +999,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1056,10 +1018,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,7 +1308,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1345,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1361,49 +1332,49 @@
     <col min="7" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="22" customFormat="1" ht="27.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="27.6">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" ht="18" thickBot="1"/>
+    <row r="3" spans="1:12" s="18" customFormat="1" ht="18" thickBot="1"/>
     <row r="4" spans="1:12" ht="18" thickBot="1"/>
     <row r="5" spans="1:12">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="52.8" customHeight="1" thickBot="1">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="1"/>
@@ -1436,16 +1407,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -1459,16 +1430,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
@@ -1477,46 +1448,46 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="L11" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" thickBot="1"/>
     <row r="13" spans="1:12">
-      <c r="B13" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1"/>
@@ -1549,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
@@ -1569,41 +1540,41 @@
     </row>
     <row r="19" spans="2:10" ht="18" thickBot="1"/>
     <row r="20" spans="2:10">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10" ht="55.8" customHeight="1" thickBot="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B24" s="3" t="s">
@@ -1630,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
@@ -1650,13 +1621,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
@@ -1670,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1690,13 +1661,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
@@ -1710,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>3</v>
@@ -1730,13 +1701,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>3</v>
@@ -1750,13 +1721,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -1770,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
@@ -1790,13 +1761,13 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>3</v>
@@ -1810,13 +1781,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
@@ -1830,13 +1801,13 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>3</v>
@@ -1850,13 +1821,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>3</v>
@@ -1869,41 +1840,41 @@
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="2:10" ht="57.6" customHeight="1" thickBot="1">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="42" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B42" s="3" t="s">
@@ -1930,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -1950,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>3</v>
@@ -1970,13 +1941,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>3</v>
@@ -1990,13 +1961,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>3</v>
@@ -2011,41 +1982,41 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
+      <c r="B48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B49" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="2:10" ht="126" customHeight="1" thickBot="1">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="B49" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="2:10" ht="108.6" customHeight="1" thickBot="1">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="5"/>
@@ -2072,38 +2043,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:10" s="7" customFormat="1">
-      <c r="B53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="2:10" s="7" customFormat="1">
-      <c r="B54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+    <row r="53" spans="2:10" s="6" customFormat="1">
+      <c r="B53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" s="6" customFormat="1">
+      <c r="B54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="5">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="G55" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -2111,19 +2082,19 @@
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>20</v>
+      <c r="G56" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:10">
@@ -2131,979 +2102,979 @@
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>28</v>
+        <v>151</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="34.799999999999997">
+        <v>17</v>
+      </c>
+      <c r="G57" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="5">
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>32</v>
+        <v>152</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="5">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="5">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="5"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" ht="18" thickBot="1">
+      <c r="B62" s="1"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="2:10" ht="37.799999999999997" customHeight="1" thickBot="1">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="2:10" ht="18" thickBot="1">
-      <c r="B60" s="1"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="2:10" ht="54" customHeight="1" thickBot="1">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="B65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1">
-      <c r="B66" s="5">
+      <c r="C67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" s="1" customFormat="1">
+      <c r="B68" s="5">
         <v>1</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1">
-      <c r="B67" s="5">
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" s="1" customFormat="1">
+      <c r="B69" s="5">
         <v>2</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1">
-      <c r="B68" s="5">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="5">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" ht="18" thickBot="1">
+      <c r="C69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="B70" s="5"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" spans="1:10" ht="17.399999999999999" customHeight="1">
-      <c r="B72" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="17"/>
-    </row>
-    <row r="73" spans="1:10" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="1:10">
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="2:10" ht="39.6" customHeight="1" thickBot="1">
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="2:10">
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="2:10">
       <c r="B75" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
       <c r="B76" s="5">
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="G76" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
       <c r="B77" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="5">
+      <c r="G77" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="18" thickBot="1"/>
+    <row r="79" spans="2:10">
+      <c r="B79" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="2:10" ht="38.4" customHeight="1" thickBot="1">
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="5">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="18" thickBot="1"/>
-    <row r="80" spans="1:10">
-      <c r="B80" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="17"/>
-    </row>
-    <row r="82" spans="2:10" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>57</v>
+      <c r="C84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="5">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="5"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="2:10" ht="18" thickBot="1"/>
+    <row r="88" spans="2:10">
+      <c r="B88" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="13"/>
+    </row>
+    <row r="90" spans="2:10" ht="18" thickBot="1">
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="5">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="C93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="5">
-        <v>2</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="5"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="2:10" ht="18" thickBot="1"/>
-    <row r="89" spans="2:10">
-      <c r="B89" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="14"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="17"/>
-    </row>
-    <row r="91" spans="2:10" ht="18" thickBot="1">
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>57</v>
+      <c r="G93" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="5">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="5">
-        <v>3</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" ht="18" thickBot="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="18" thickBot="1"/>
+    <row r="97" spans="2:10">
+      <c r="B97" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="2:10" ht="18" thickBot="1">
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="5">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="2:10" ht="18" thickBot="1">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="17"/>
-    </row>
-    <row r="100" spans="2:10" ht="18" thickBot="1">
-      <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="2:10" ht="61.8" customHeight="1" thickBot="1">
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="5">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="5">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="2:10" ht="18" thickBot="1">
-      <c r="B105" s="5"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="17"/>
-    </row>
-    <row r="108" spans="2:10" ht="61.8" customHeight="1" thickBot="1">
-      <c r="B108" s="18"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="2:10">
-      <c r="B114" s="5">
-        <v>4</v>
+      <c r="B114" s="10">
+        <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="18" thickBot="1">
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" ht="18" thickBot="1">
-      <c r="B116" s="11"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="17"/>
-    </row>
-    <row r="119" spans="2:10" ht="18" thickBot="1">
-      <c r="B119" s="18"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="B117" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="2:10" ht="18" thickBot="1">
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>57</v>
+      <c r="B121" s="5">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="5">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="18" thickBot="1"/>
+    <row r="124" spans="2:10">
+      <c r="B124" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="2:10" ht="18" thickBot="1">
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="5">
         <v>2</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" ht="18" thickBot="1"/>
-    <row r="125" spans="2:10">
-      <c r="B125" s="12" t="s">
+      <c r="C130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="5">
+        <v>3</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="10">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="10">
         <v>5</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="14"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="17"/>
-    </row>
-    <row r="127" spans="2:10" ht="18" thickBot="1">
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="B129" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="5">
-        <v>1</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="B131" s="5">
-        <v>2</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="B132" s="5">
-        <v>3</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="B133" s="11">
-        <v>4</v>
-      </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="B134" s="11">
-        <v>5</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="10">
+        <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135" s="11">
-        <v>6</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B116:J116"/>
+    <mergeCell ref="B117:J118"/>
+    <mergeCell ref="B124:J124"/>
+    <mergeCell ref="B125:J126"/>
+    <mergeCell ref="B88:J88"/>
+    <mergeCell ref="B89:J90"/>
+    <mergeCell ref="B97:J97"/>
+    <mergeCell ref="B98:J99"/>
+    <mergeCell ref="B105:J105"/>
+    <mergeCell ref="B106:J107"/>
+    <mergeCell ref="B64:J65"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="B72:J73"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="B80:J81"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J50"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J22"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J40"/>
     <mergeCell ref="B14:J15"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J7"/>
     <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J50"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J22"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J40"/>
-    <mergeCell ref="B62:J63"/>
-    <mergeCell ref="B71:J71"/>
-    <mergeCell ref="B72:J73"/>
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B81:J82"/>
-    <mergeCell ref="B117:J117"/>
-    <mergeCell ref="B118:J119"/>
-    <mergeCell ref="B125:J125"/>
-    <mergeCell ref="B126:J127"/>
-    <mergeCell ref="B89:J89"/>
-    <mergeCell ref="B90:J91"/>
-    <mergeCell ref="B98:J98"/>
-    <mergeCell ref="B99:J100"/>
-    <mergeCell ref="B106:J106"/>
-    <mergeCell ref="B107:J108"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/테스트케이스_A204.xlsx
+++ b/산출물/테스트케이스_A204.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="195">
   <si>
     <t>테스트 케이스 (FINAL)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -98,14 +98,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>issue free</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TC NO</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -162,187 +154,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>챗봇 API 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗봇 아이콘을 눌렀을 때 Q&amp;A 채팅이 열리는가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주 묻는 질문과 회원역할에 대한 정보를 주는가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 목록을 눌렀는데 정보를 주는 것을 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue free</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤법 검사 버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤법 검사하고자하는 자소서 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>검사 버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤법이 틀린 부분과 알맞게 고친 텍스트가 after area에 나타남</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 버튼을 누를 시 틀린 부분 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 채용 찜해두기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지가 화면에 출력되고 다른 유저의 뷰에서도 보여짐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 페이지 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더에 내가 추가한 기업의 시작일과 마감일 표시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 즐겨찾기한 기업의 리스트를 보여줌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 추가한 기업이 존재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가한 기업 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 채용 상세 채용 정보를 보여줌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가한 리스트에서 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 컴포넌트 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>today 버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 날짜로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 프로젝트를 firebase hosting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전에 제작했던 프로젝트 사이트로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 이름 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>조원들의 gitlab repository 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링한 데이터를 홈페이지에서 잘 읽어오는지 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용공고 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용 상세 공고가 다이얼로그 형태로 나타남</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>직무별 인기공고 카테고리를 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭한 카테고리에 색 변경 및 카테고리에 따른 공고가 보여짐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항이 잘 보여지는지 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공모전 및 강연 리스트가 잘 보여지는지 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업자 게시판의 리스트가 보여지는지 확인</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -362,36 +174,6 @@
   <si>
     <t>Vue.js Api 통신 코드 모듈화</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8] WebRTC 기반 화상 채팅 구현
-1. 챗봇 API를 이용하여 Q&amp;A 채팅 기능 구현
-2. 자주묻는질문과 회원롤은 직접등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] 공지사항
-자기소개서 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10] History 기능 설계 &amp; 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11] QA &amp; Refactor
-1. 즐겨찾기 기능 구현
-2. 달력 구현해 즐겨찾기한 기업의 시작일 마감일 표시
-3. 즐겨찾기한 기업의 리스트 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12] 채팅 서버</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13] 디버그 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
@@ -720,6 +502,320 @@
   </si>
   <si>
     <t>칸반모듈 front와 back 연동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC 소켓 서버 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8] WebRTC 기반 화상 채팅 구현
+1. RTC 소켓 서버 구현
+2. client socket과 연동
+3. Vue.js 클라이언트와 Node.js 서버 연동
+4. 화상 미팅 비디오 on off 기능
+5. 화상 미팅 종료시 RTC 연결제거</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC 소켓 서버</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>client socket과 연동</t>
+  </si>
+  <si>
+    <t>Vue.js 클라이언트와 Node.js 서버 연동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상 미팅 비디오 on off 기능</t>
+  </si>
+  <si>
+    <t>화상 미팅 종료시 RTC 연결제거</t>
+  </si>
+  <si>
+    <t>RTC 모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 정상 구동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>client와 연동 상태 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node.js와 Vue.js 간 연동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 on off 조절 가능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃, 페이지 아웃 시 RTC연결 종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9] 공지사항
+1. 공지사항 구조 설계
+2. 프론트와 백 연동
+3. 프론트 상세화
+4. 유저정보와 작성자간 연동</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트/백 연동 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 화면 구상 및 구조 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 프론트 고도화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보와 작성자 간 연동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항과 연동될 backend 정상 작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>back과 연동될 front 정상 작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 front 디자인 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 유저가 작성자로서 기록됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring data envers -&gt; javer 의존 관계 세팅</t>
+  </si>
+  <si>
+    <t>프론트 화면 구성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>javer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리 컴포넌트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10] History 기능 설계 &amp; 구현
+1. envers대신 javer로 의존 관계 세팅
+2. 히스토리 프론트 화면 구성
+3. API 연동 및 테스트
+4. 모듈 작성자 연결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 연동 및 테스트</t>
+  </si>
+  <si>
+    <t>모듈 작성자 연결</t>
+  </si>
+  <si>
+    <t>javers로 변경 후 의존관계 여부 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리 프론트 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>javers와 프론트 연동 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리에 작성자 표시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11] Editor 모듈
+1. 에디터 기능 구현 방법 목록화
+2. 에디터 페이지 작성 
+3. 에디터 페이지 모듈화
+4. 에디터 백 연동
+5. 작성된 에디터 다운로드 기능
+6. 에디터 숨기기 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 기능 구현 방법 목록화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록화된 것 중 마크다운 에디터 가능한 결과 존재</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 페이지 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 페이지 모듈화</t>
+  </si>
+  <si>
+    <t>에디터 백 연동</t>
+  </si>
+  <si>
+    <t>에디터 숨기기 기능 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 다운로드 기능 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크다운 변환 프론트 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 페이지가 모듈로서 작동확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터의 front, back 데이터 송수신 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>md 파일로 다운로드 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 모듈을 숨기고 펼쳐지는지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>web-socket</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat 모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poll 모듈, Editor 모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소켓연결 endpoint 루트 재작성</t>
+  </si>
+  <si>
+    <t>chat 안 읽은 메시지 알림 설정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat 작성 시간 추가</t>
+  </si>
+  <si>
+    <t>모듈 z-index 설정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12] QA &amp; Refactor
+1. 소켓연결 endpoint 루트 재작성
+2. chat 안 읽은 메시지 알림 설정
+3. chat 작성 시간 추가
+4. 모듈 z-index 변경</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>endpoint 정상 작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat에서 안 읽은 메시지 수가 표시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat에서 작성된 시간 표시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈간 z위치 정상 작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13] 입장페이지 수정
+1. 입장 화면 틀 잡기
+2. 입장화면 
+3. Guide 페이지 작성
+4. Header 변경
+5. 푸터로 이동하는 팀소개 페이지 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장 화면 틀 잡기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">입장화면 </t>
+  </si>
+  <si>
+    <t>Guide 페이지 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header 변경</t>
+  </si>
+  <si>
+    <t>푸터로 이동하는 팀소개 페이지 작성</t>
+  </si>
+  <si>
+    <t>입장화면부터 관련 페이지 이동에 대한 토대 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장화면 작성 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드 페이지 작성 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header 변경 상태 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 소개 페이지 확인</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1096,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1024,14 +1129,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1096,7 +1198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1332,49 +1434,49 @@
     <col min="7" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="27.6">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="27.6">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="18" customFormat="1" ht="18" thickBot="1"/>
+    <row r="3" spans="1:12" s="21" customFormat="1" ht="18" thickBot="1"/>
     <row r="4" spans="1:12" ht="18" thickBot="1"/>
     <row r="5" spans="1:12">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="52.8" customHeight="1" thickBot="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="1"/>
@@ -1407,16 +1509,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -1430,16 +1532,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
@@ -1448,46 +1550,46 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" thickBot="1"/>
     <row r="13" spans="1:12">
-      <c r="B13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1"/>
@@ -1520,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
@@ -1540,41 +1642,41 @@
     </row>
     <row r="19" spans="2:10" ht="18" thickBot="1"/>
     <row r="20" spans="2:10">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" ht="55.8" customHeight="1" thickBot="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B24" s="3" t="s">
@@ -1601,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
@@ -1621,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
@@ -1641,13 +1743,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1661,13 +1763,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
@@ -1681,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>3</v>
@@ -1701,13 +1803,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>3</v>
@@ -1721,13 +1823,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -1741,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
@@ -1761,13 +1863,13 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>3</v>
@@ -1781,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
@@ -1801,13 +1903,13 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>3</v>
@@ -1821,13 +1923,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>3</v>
@@ -1840,41 +1942,41 @@
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="2:10" ht="57.6" customHeight="1" thickBot="1">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="42" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B42" s="3" t="s">
@@ -1901,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -1921,13 +2023,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>3</v>
@@ -1941,13 +2043,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>3</v>
@@ -1961,13 +2063,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>3</v>
@@ -1982,41 +2084,41 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="B49" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="2:10" ht="108.6" customHeight="1" thickBot="1">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="5"/>
@@ -2052,7 +2154,7 @@
     </row>
     <row r="54" spans="2:10" s="6" customFormat="1">
       <c r="B54" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -2062,13 +2164,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>16</v>
@@ -2082,13 +2184,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
@@ -2102,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>17</v>
@@ -2122,13 +2224,13 @@
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>3</v>
@@ -2142,13 +2244,13 @@
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>3</v>
@@ -2162,13 +2264,13 @@
         <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>3</v>
@@ -2188,60 +2290,60 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13"/>
+      <c r="B64" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="2:10" ht="37.799999999999997" customHeight="1" thickBot="1">
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:10" s="1" customFormat="1">
@@ -2249,16 +2351,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="G68" s="1">
         <v>48</v>
@@ -2269,16 +2371,16 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="G69" s="1">
         <v>57</v>
@@ -2288,41 +2390,41 @@
       <c r="B70" s="5"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="21"/>
+      <c r="B71" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="13"/>
+      <c r="B72" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
     </row>
     <row r="73" spans="2:10" ht="39.6" customHeight="1" thickBot="1">
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="19"/>
     </row>
     <row r="74" spans="2:10">
       <c r="C74"/>
@@ -2333,22 +2435,22 @@
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -2356,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>12</v>
@@ -2376,13 +2478,13 @@
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>12</v>
@@ -2393,41 +2495,41 @@
     </row>
     <row r="78" spans="2:10" ht="18" thickBot="1"/>
     <row r="79" spans="2:10">
-      <c r="B79" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
+      <c r="B79" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="13"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="2:10" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
+      <c r="B80" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" ht="90.6" customHeight="1" thickBot="1">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="19"/>
     </row>
     <row r="82" spans="2:10">
       <c r="C82"/>
@@ -2438,22 +2540,22 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -2461,19 +2563,19 @@
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>40</v>
+      <c r="G84" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -2481,587 +2583,843 @@
         <v>2</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="G85" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="5"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-    </row>
-    <row r="87" spans="2:10" ht="18" thickBot="1"/>
+      <c r="B86" s="5">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="5">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="1">
+        <v>118</v>
+      </c>
+    </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="5">
         <v>5</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="2:10" ht="18" thickBot="1">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="18" thickBot="1"/>
+    <row r="90" spans="2:10">
+      <c r="B90" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="2:10" ht="70.8" customHeight="1" thickBot="1">
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="19"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="5">
-        <v>1</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="5">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="5">
-        <v>3</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" ht="18" thickBot="1"/>
+        <v>140</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="5">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>66</v>
+      </c>
+    </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="5">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="5">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="18" thickBot="1"/>
+    <row r="100" spans="2:10">
+      <c r="B100" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="11" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+    </row>
+    <row r="102" spans="2:10" ht="69" customHeight="1" thickBot="1">
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="19"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="5">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1">
         <v>86</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="2:10" ht="18" thickBot="1">
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="5">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="5">
+        <v>4</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="18" thickBot="1">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+    </row>
+    <row r="112" spans="2:10" ht="104.4" customHeight="1" thickBot="1">
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="19"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" s="3" t="s">
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G115" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="5">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="5">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="5">
+        <v>4</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G118" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="5">
+    <row r="119" spans="2:10">
+      <c r="B119" s="5">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G119" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="5">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G120" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="18" thickBot="1">
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="13"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+    </row>
+    <row r="124" spans="2:10" ht="71.400000000000006" customHeight="1" thickBot="1">
+      <c r="B124" s="17"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="19"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="5">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="C127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="5"/>
-    </row>
-    <row r="104" spans="2:10" ht="18" thickBot="1">
-      <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="19" t="s">
+      <c r="G127" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="5">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="5">
+        <v>3</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="5">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="18" thickBot="1"/>
+    <row r="132" spans="2:10">
+      <c r="B132" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="21"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="2:10" ht="61.8" customHeight="1" thickBot="1">
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="3" t="s">
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="13"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+    </row>
+    <row r="134" spans="2:10" ht="87" customHeight="1" thickBot="1">
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="19"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="5">
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="5">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="5">
+      <c r="C137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="5">
         <v>2</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="5">
-        <v>3</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="5">
+      <c r="C138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G138" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="5">
+        <v>3</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="10">
         <v>4</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="10">
+      <c r="C140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="10">
         <v>5</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" ht="18" thickBot="1">
-      <c r="B115" s="10"/>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="21"/>
-    </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="13"/>
-    </row>
-    <row r="118" spans="2:10" ht="18" thickBot="1">
-      <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="5">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="5">
-        <v>2</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" ht="18" thickBot="1"/>
-    <row r="124" spans="2:10">
-      <c r="B124" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="21"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="13"/>
-    </row>
-    <row r="126" spans="2:10" ht="18" thickBot="1">
-      <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="5">
-        <v>1</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="5">
-        <v>2</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="5">
-        <v>3</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="10">
-        <v>4</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="10">
-        <v>5</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="10">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>19</v>
+      <c r="C141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" s="1">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B116:J116"/>
-    <mergeCell ref="B117:J118"/>
-    <mergeCell ref="B124:J124"/>
-    <mergeCell ref="B125:J126"/>
-    <mergeCell ref="B88:J88"/>
-    <mergeCell ref="B89:J90"/>
-    <mergeCell ref="B97:J97"/>
-    <mergeCell ref="B98:J99"/>
-    <mergeCell ref="B105:J105"/>
-    <mergeCell ref="B106:J107"/>
-    <mergeCell ref="B64:J65"/>
-    <mergeCell ref="B71:J71"/>
-    <mergeCell ref="B72:J73"/>
-    <mergeCell ref="B79:J79"/>
-    <mergeCell ref="B80:J81"/>
+    <mergeCell ref="B14:J15"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B13:J13"/>
     <mergeCell ref="B48:J48"/>
     <mergeCell ref="B49:J50"/>
     <mergeCell ref="B63:J63"/>
@@ -3069,12 +3427,21 @@
     <mergeCell ref="B21:J22"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B39:J40"/>
-    <mergeCell ref="B14:J15"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B64:J65"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="B72:J73"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="B80:J81"/>
+    <mergeCell ref="B122:J122"/>
+    <mergeCell ref="B123:J124"/>
+    <mergeCell ref="B132:J132"/>
+    <mergeCell ref="B133:J134"/>
+    <mergeCell ref="B90:J90"/>
+    <mergeCell ref="B91:J92"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="B101:J102"/>
+    <mergeCell ref="B110:J110"/>
+    <mergeCell ref="B111:J112"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/테스트케이스_A204.xlsx
+++ b/산출물/테스트케이스_A204.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="212">
   <si>
     <t>테스트 케이스 (FINAL)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -816,6 +816,80 @@
   </si>
   <si>
     <t>팀 소개 페이지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14] 채팅 서버
+1. 동작 플로우 수정
+2. 중복 접속 및 채팅 오류 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 모듈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 플로우 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 접속 및 채팅 오류 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 정상 동작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복으로 접속 불가, 정상적으로 접속 종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join css 동일화</t>
+  </si>
+  <si>
+    <t>[14] Front css 동일화 작업
+1. Join css 동일화
+2. 인증 페이지 css 동일화
+3. 비밀번호 수정 페이지 css 동일화
+4. error 페이지 css 동일화
+5. 기타 css 동일화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 페이지 css 동일화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 수정 페이지 css 동일화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>error 페이지 css 동일화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 css 동일화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join 페이지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 페이지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 페이지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>error, e404 페이지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">List, Header 페이지 확인 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1096,6 +1170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1128,12 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1418,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="E148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1434,49 +1508,49 @@
     <col min="7" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="27.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" s="22" customFormat="1" ht="27.6">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" ht="18" thickBot="1"/>
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="18" thickBot="1"/>
     <row r="4" spans="1:12" ht="18" thickBot="1"/>
     <row r="5" spans="1:12">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="52.8" customHeight="1" thickBot="1">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="1"/>
@@ -1555,41 +1629,41 @@
     </row>
     <row r="12" spans="1:12" ht="18" thickBot="1"/>
     <row r="13" spans="1:12">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1"/>
@@ -1642,41 +1716,41 @@
     </row>
     <row r="19" spans="2:10" ht="18" thickBot="1"/>
     <row r="20" spans="2:10">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" ht="55.8" customHeight="1" thickBot="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B24" s="3" t="s">
@@ -1942,41 +2016,41 @@
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="2:10" ht="57.6" customHeight="1" thickBot="1">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="42" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B42" s="3" t="s">
@@ -2084,41 +2158,41 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="2:10" ht="108.6" customHeight="1" thickBot="1">
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="5"/>
@@ -2290,41 +2364,41 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="2:10" ht="37.799999999999997" customHeight="1" thickBot="1">
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="3" t="s">
@@ -2390,41 +2464,41 @@
       <c r="B70" s="5"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="18"/>
     </row>
     <row r="73" spans="2:10" ht="39.6" customHeight="1" thickBot="1">
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10">
       <c r="C74"/>
@@ -2495,41 +2569,41 @@
     </row>
     <row r="78" spans="2:10" ht="18" thickBot="1"/>
     <row r="79" spans="2:10">
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
     </row>
     <row r="81" spans="2:10" ht="90.6" customHeight="1" thickBot="1">
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10">
       <c r="C82"/>
@@ -2648,53 +2722,53 @@
       <c r="D88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G88" s="12">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="18" thickBot="1"/>
     <row r="90" spans="2:10">
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="18"/>
     </row>
     <row r="92" spans="2:10" ht="70.8" customHeight="1" thickBot="1">
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="3" t="s">
@@ -2798,41 +2872,41 @@
     </row>
     <row r="99" spans="2:10" ht="18" thickBot="1"/>
     <row r="100" spans="2:10">
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" spans="2:10" ht="69" customHeight="1" thickBot="1">
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="3" t="s">
@@ -2938,41 +3012,41 @@
       <c r="B109" s="5"/>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="15"/>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="18"/>
     </row>
     <row r="112" spans="2:10" ht="104.4" customHeight="1" thickBot="1">
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="3" t="s">
@@ -3118,41 +3192,41 @@
       <c r="B121" s="10"/>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="15"/>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="18"/>
     </row>
     <row r="124" spans="2:10" ht="71.400000000000006" customHeight="1" thickBot="1">
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="3" t="s">
@@ -3256,41 +3330,41 @@
     </row>
     <row r="131" spans="2:10" ht="18" thickBot="1"/>
     <row r="132" spans="2:10">
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="15"/>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" spans="2:10" ht="87" customHeight="1" thickBot="1">
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="3" t="s">
@@ -3412,8 +3486,264 @@
         <v>95</v>
       </c>
     </row>
+    <row r="142" spans="2:10" ht="18" thickBot="1"/>
+    <row r="143" spans="2:10">
+      <c r="B143" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="18"/>
+    </row>
+    <row r="145" spans="2:10" ht="36.6" customHeight="1" thickBot="1">
+      <c r="B145" s="19"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="5">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" ht="18" thickBot="1"/>
+    <row r="151" spans="2:10">
+      <c r="B151" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="18"/>
+    </row>
+    <row r="153" spans="2:10" ht="88.2" customHeight="1" thickBot="1">
+      <c r="B153" s="19"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="5">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="5">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="5">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="5">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="1">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
     <mergeCell ref="B14:J15"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A3:XFD3"/>
@@ -3427,21 +3757,25 @@
     <mergeCell ref="B21:J22"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B39:J40"/>
+    <mergeCell ref="B111:J112"/>
     <mergeCell ref="B64:J65"/>
     <mergeCell ref="B71:J71"/>
     <mergeCell ref="B72:J73"/>
     <mergeCell ref="B79:J79"/>
     <mergeCell ref="B80:J81"/>
-    <mergeCell ref="B122:J122"/>
-    <mergeCell ref="B123:J124"/>
-    <mergeCell ref="B132:J132"/>
-    <mergeCell ref="B133:J134"/>
     <mergeCell ref="B90:J90"/>
     <mergeCell ref="B91:J92"/>
     <mergeCell ref="B100:J100"/>
     <mergeCell ref="B101:J102"/>
     <mergeCell ref="B110:J110"/>
-    <mergeCell ref="B111:J112"/>
+    <mergeCell ref="B143:J143"/>
+    <mergeCell ref="B144:J145"/>
+    <mergeCell ref="B151:J151"/>
+    <mergeCell ref="B152:J153"/>
+    <mergeCell ref="B122:J122"/>
+    <mergeCell ref="B123:J124"/>
+    <mergeCell ref="B132:J132"/>
+    <mergeCell ref="B133:J134"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
